--- a/Teams/output/pred.xlsx
+++ b/Teams/output/pred.xlsx
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">

--- a/Teams/output/pred.xlsx
+++ b/Teams/output/pred.xlsx
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
